--- a/arknight/549842872882800539_2021-07-21_17-11-10.xlsx
+++ b/arknight/549842872882800539_2021-07-21_17-11-10.xlsx
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         </is>
       </c>
       <c r="I346" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         </is>
       </c>
       <c r="I513" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J513" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         </is>
       </c>
       <c r="I552" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J552" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         </is>
       </c>
       <c r="I623" t="n">
-        <v>3204</v>
+        <v>3209</v>
       </c>
       <c r="J623" t="inlineStr">
         <is>
@@ -57168,7 +57168,7 @@
         </is>
       </c>
       <c r="I779" t="n">
-        <v>4422</v>
+        <v>4425</v>
       </c>
       <c r="J779" t="inlineStr">
         <is>
@@ -63016,7 +63016,7 @@
         </is>
       </c>
       <c r="I858" t="n">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="J858" t="inlineStr">
         <is>
@@ -63087,7 +63087,7 @@
         </is>
       </c>
       <c r="I859" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J859" t="inlineStr">
         <is>
@@ -63154,7 +63154,7 @@
         </is>
       </c>
       <c r="I860" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J860" t="inlineStr">
         <is>
@@ -63809,7 +63809,7 @@
         </is>
       </c>
       <c r="I869" t="n">
-        <v>10607</v>
+        <v>10618</v>
       </c>
       <c r="J869" t="inlineStr">
         <is>
@@ -64856,7 +64856,7 @@
         </is>
       </c>
       <c r="I883" t="n">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="J883" t="inlineStr">
         <is>
@@ -75407,7 +75407,7 @@
         </is>
       </c>
       <c r="I1028" t="n">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="J1028" t="inlineStr">
         <is>
@@ -79093,7 +79093,7 @@
         </is>
       </c>
       <c r="I1079" t="n">
-        <v>9417</v>
+        <v>9422</v>
       </c>
       <c r="J1079" t="inlineStr">
         <is>
